--- a/matrices_data.xlsx
+++ b/matrices_data.xlsx
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -568,7 +568,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1094,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1334,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1638,13 +1638,13 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1721,7 +1721,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1887,58 +1887,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -1961,22 +1961,22 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -1985,28 +1985,28 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2014,7 +2014,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -2029,19 +2029,19 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4" t="n">
         <v>2</v>
@@ -2050,22 +2050,22 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -2094,13 +2094,13 @@
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J5" t="n">
         <v>3</v>
@@ -2109,31 +2109,31 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -2165,43 +2165,43 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -2209,16 +2209,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -2236,13 +2236,13 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
@@ -2251,19 +2251,19 @@
         <v>2</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -2304,34 +2304,34 @@
         <v>3</v>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -2339,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -2369,34 +2369,34 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -2404,13 +2404,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -2443,25 +2443,25 @@
         <v>3</v>
       </c>
       <c r="O10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -2469,22 +2469,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
       </c>
       <c r="F11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>3</v>
@@ -2502,31 +2502,31 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>3</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -2534,7 +2534,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
@@ -2543,22 +2543,22 @@
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -2573,25 +2573,25 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -2599,7 +2599,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>3</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I13" t="n">
         <v>3</v>
@@ -2626,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -2644,7 +2644,7 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -2664,34 +2664,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -2712,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2729,37 +2729,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" t="n">
         <v>2</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
         <v>3</v>
@@ -2794,37 +2794,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J16" t="n">
         <v>3</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S16" t="n">
         <v>3</v>
@@ -2859,49 +2859,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
         <v>3</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
       </c>
       <c r="O17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="T17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U17" t="n">
         <v>3</v>
@@ -2924,49 +2924,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q18" t="n">
         <v>1</v>
@@ -2978,10 +2978,10 @@
         <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -2989,43 +2989,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>2</v>
@@ -3054,7 +3054,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -3063,34 +3063,34 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>3</v>
@@ -3099,10 +3099,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -3131,31 +3131,31 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -3167,7 +3167,7 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
         <v>2</v>
@@ -3268,58 +3268,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="E2" t="n">
         <v>0.994851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="I2" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J2" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="K2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="R2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -3330,7 +3330,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -3342,22 +3342,22 @@
         <v>0.981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="G3" t="n">
         <v>0.994851</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="J3" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="K3" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="L3" t="n">
         <v>0.994851</v>
@@ -3366,28 +3366,28 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="4">
@@ -3395,7 +3395,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="C4" t="n">
         <v>0.9</v>
@@ -3410,43 +3410,43 @@
         <v>0.981</v>
       </c>
       <c r="G4" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="I4" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J4" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="K4" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.9</v>
       </c>
-      <c r="L4" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="P4" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -3475,46 +3475,46 @@
         <v>0.9</v>
       </c>
       <c r="G5" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.9</v>
       </c>
-      <c r="H5" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.981</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="P5" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="C6" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="D6" t="n">
         <v>0.981</v>
@@ -3546,43 +3546,43 @@
         <v>0.981</v>
       </c>
       <c r="I6" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="J6" t="n">
         <v>0.981</v>
       </c>
       <c r="K6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="L6" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="M6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="N6" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="7">
@@ -3590,16 +3590,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0.994851</v>
       </c>
       <c r="D7" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="F7" t="n">
         <v>0.9</v>
@@ -3617,13 +3617,13 @@
         <v>0.994851</v>
       </c>
       <c r="K7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="M7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0.994851</v>
@@ -3632,19 +3632,19 @@
         <v>0.981</v>
       </c>
       <c r="P7" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3655,16 +3655,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="D8" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="E8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="F8" t="n">
         <v>0.981</v>
@@ -3685,34 +3685,34 @@
         <v>0.994851</v>
       </c>
       <c r="L8" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="O8" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="P8" t="n">
         <v>0.981</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="9">
@@ -3720,19 +3720,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="E9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="G9" t="n">
         <v>0.981</v>
@@ -3750,34 +3750,34 @@
         <v>0.981</v>
       </c>
       <c r="L9" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="M9" t="n">
         <v>0.994851</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="O9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="P9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="10">
@@ -3785,13 +3785,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="D10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="E10" t="n">
         <v>0.994851</v>
@@ -3815,34 +3815,34 @@
         <v>0.9</v>
       </c>
       <c r="L10" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.9</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3850,22 +3850,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="E11" t="n">
         <v>0.981</v>
       </c>
       <c r="F11" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0.994851</v>
@@ -3883,31 +3883,31 @@
         <v>0.9</v>
       </c>
       <c r="M11" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="O11" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0.994851</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="12">
@@ -3915,31 +3915,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.9</v>
       </c>
-      <c r="C12" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.981</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="G12" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="H12" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="I12" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="J12" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="K12" t="n">
         <v>0.9</v>
@@ -3954,25 +3954,25 @@
         <v>0.981</v>
       </c>
       <c r="O12" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.9</v>
       </c>
-      <c r="P12" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="13">
@@ -3980,7 +3980,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -3989,16 +3989,16 @@
         <v>0.994851</v>
       </c>
       <c r="E13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="I13" t="n">
         <v>0.994851</v>
@@ -4007,7 +4007,7 @@
         <v>0.981</v>
       </c>
       <c r="K13" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="L13" t="n">
         <v>0.9</v>
@@ -4025,7 +4025,7 @@
         <v>0.994851</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0.994851</v>
@@ -4037,7 +4037,7 @@
         <v>0.994851</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="14">
@@ -4045,34 +4045,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="F14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0.994851</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="J14" t="n">
         <v>0.994851</v>
       </c>
       <c r="K14" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="L14" t="n">
         <v>0.981</v>
@@ -4093,16 +4093,16 @@
         <v>0.994851</v>
       </c>
       <c r="R14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="T14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4110,37 +4110,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="D15" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="E15" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G15" t="n">
         <v>0.981</v>
       </c>
       <c r="H15" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="I15" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="K15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="L15" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="M15" t="n">
         <v>0.981</v>
@@ -4155,7 +4155,7 @@
         <v>0.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="R15" t="n">
         <v>0.994851</v>
@@ -4175,37 +4175,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D16" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="E16" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="F16" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="H16" t="n">
         <v>0.981</v>
       </c>
       <c r="I16" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J16" t="n">
         <v>0.994851</v>
       </c>
       <c r="K16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0.994851</v>
@@ -4220,10 +4220,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S16" t="n">
         <v>0.994851</v>
@@ -4240,49 +4240,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.9</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="K17" t="n">
         <v>0.994851</v>
       </c>
       <c r="L17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="M17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0.994851</v>
       </c>
       <c r="O17" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -4294,7 +4294,7 @@
         <v>0.981</v>
       </c>
       <c r="T17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="U17" t="n">
         <v>0.994851</v>
@@ -4305,49 +4305,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="L18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="M18" t="n">
         <v>0.994851</v>
       </c>
       <c r="N18" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0.994851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="Q18" t="n">
         <v>0.9</v>
@@ -4359,10 +4359,10 @@
         <v>0.9</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="U18" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="19">
@@ -4370,43 +4370,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="L19" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="M19" t="n">
         <v>0.981</v>
       </c>
       <c r="N19" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="O19" t="n">
         <v>0.981</v>
@@ -4435,7 +4435,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -4444,34 +4444,34 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="M20" t="n">
         <v>0.994851</v>
       </c>
       <c r="N20" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0.994851</v>
@@ -4480,10 +4480,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="R20" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="S20" t="n">
         <v>0.9</v>
@@ -4503,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -4512,31 +4512,31 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="N21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -4548,7 +4548,7 @@
         <v>0.994851</v>
       </c>
       <c r="R21" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="S21" t="n">
         <v>0.981</v>
@@ -4649,58 +4649,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="D2" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E2" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="F2" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I2" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J2" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -4711,7 +4711,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -4723,22 +4723,22 @@
         <v>1.036438884255891</v>
       </c>
       <c r="F3" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G3" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="J3" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L3" t="n">
         <v>1.802348869224726</v>
@@ -4747,28 +4747,28 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="4">
@@ -4776,7 +4776,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C4" t="n">
         <v>0.4342944819032518</v>
@@ -4791,43 +4791,43 @@
         <v>1.036438884255891</v>
       </c>
       <c r="G4" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J4" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K4" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="L4" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="P4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -4856,46 +4856,46 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="G5" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="L5" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="H5" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.036438884255891</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O5" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P5" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -4906,10 +4906,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C6" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D6" t="n">
         <v>1.036438884255891</v>
@@ -4927,43 +4927,43 @@
         <v>1.036438884255891</v>
       </c>
       <c r="I6" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="J6" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="K6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L6" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N6" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="7">
@@ -4971,16 +4971,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="D7" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F7" t="n">
         <v>0.4342944819032518</v>
@@ -4998,13 +4998,13 @@
         <v>1.802348869224726</v>
       </c>
       <c r="K7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>1.802348869224726</v>
@@ -5013,19 +5013,19 @@
         <v>1.036438884255891</v>
       </c>
       <c r="P7" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -5036,16 +5036,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D8" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F8" t="n">
         <v>1.036438884255891</v>
@@ -5066,34 +5066,34 @@
         <v>1.802348869224726</v>
       </c>
       <c r="L8" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O8" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="P8" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="9">
@@ -5101,19 +5101,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="D9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F9" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="G9" t="n">
         <v>1.036438884255891</v>
@@ -5131,34 +5131,34 @@
         <v>1.036438884255891</v>
       </c>
       <c r="L9" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M9" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="10">
@@ -5166,13 +5166,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C10" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E10" t="n">
         <v>1.802348869224726</v>
@@ -5196,34 +5196,34 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="L10" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="U10" t="n">
         <v>0.4342944819032518</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="N10" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5231,22 +5231,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E11" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="F11" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>1.802348869224726</v>
@@ -5264,31 +5264,31 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="M11" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="N11" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O11" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="12">
@@ -5296,31 +5296,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="E12" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="C12" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.036438884255891</v>
-      </c>
       <c r="F12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G12" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H12" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I12" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="J12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K12" t="n">
         <v>0.4342944819032518</v>
@@ -5335,25 +5335,25 @@
         <v>1.036438884255891</v>
       </c>
       <c r="O12" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="S12" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="P12" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="13">
@@ -5361,7 +5361,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -5370,16 +5370,16 @@
         <v>1.802348869224726</v>
       </c>
       <c r="E13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F13" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I13" t="n">
         <v>1.802348869224726</v>
@@ -5388,7 +5388,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="K13" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="L13" t="n">
         <v>0.4342944819032518</v>
@@ -5406,7 +5406,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>1.802348869224726</v>
@@ -5418,7 +5418,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="14">
@@ -5426,34 +5426,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="J14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="K14" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L14" t="n">
         <v>1.036438884255891</v>
@@ -5474,16 +5474,16 @@
         <v>1.802348869224726</v>
       </c>
       <c r="R14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5491,37 +5491,37 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D15" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="E15" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G15" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="H15" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="I15" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L15" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M15" t="n">
         <v>1.036438884255891</v>
@@ -5536,7 +5536,7 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R15" t="n">
         <v>1.802348869224726</v>
@@ -5556,37 +5556,37 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D16" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E16" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F16" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H16" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="I16" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J16" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="K16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>1.802348869224726</v>
@@ -5601,10 +5601,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S16" t="n">
         <v>1.802348869224726</v>
@@ -5621,49 +5621,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
       <c r="J17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K17" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="L17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="O17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -5675,7 +5675,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="T17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U17" t="n">
         <v>1.802348869224726</v>
@@ -5686,49 +5686,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M18" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="N18" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q18" t="n">
         <v>0.4342944819032518</v>
@@ -5740,10 +5740,10 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U18" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="19">
@@ -5751,43 +5751,43 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L19" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="M19" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="N19" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O19" t="n">
         <v>1.036438884255891</v>
@@ -5816,7 +5816,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -5825,34 +5825,34 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M20" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="N20" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>1.802348869224726</v>
@@ -5861,10 +5861,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R20" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S20" t="n">
         <v>0.4342944819032518</v>
@@ -5884,7 +5884,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -5893,31 +5893,31 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -5929,7 +5929,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="R21" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S21" t="n">
         <v>1.036438884255891</v>

--- a/matrices_data.xlsx
+++ b/matrices_data.xlsx
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -929,10 +929,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -988,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -1003,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
@@ -1118,10 +1118,10 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1174,13 +1174,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>3</v>
@@ -1902,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1923,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
@@ -1967,46 +1967,46 @@
         <v>3</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
         <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2032,43 +2032,43 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
         <v>3</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2079,10 +2079,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2106,13 +2106,13 @@
         <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>3</v>
@@ -2124,19 +2124,19 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
         <v>2</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -2165,43 +2165,43 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -2242,31 +2242,31 @@
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>3</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -2274,13 +2274,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2307,28 +2307,28 @@
         <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U8" t="n">
         <v>3</v>
@@ -2339,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -2369,13 +2369,13 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O9" t="n">
         <v>2</v>
@@ -2384,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
@@ -2404,19 +2404,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2434,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
@@ -2446,13 +2446,13 @@
         <v>3</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S10" t="n">
         <v>3</v>
@@ -2472,16 +2472,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2499,28 +2499,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>3</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>3</v>
@@ -2537,16 +2537,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>3</v>
@@ -2555,13 +2555,13 @@
         <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -2573,25 +2573,25 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
         <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -2605,28 +2605,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
         <v>2</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -2641,19 +2641,19 @@
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
         <v>3</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>3</v>
@@ -2667,31 +2667,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>2</v>
@@ -2744,10 +2744,10 @@
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>2</v>
@@ -2756,10 +2756,10 @@
         <v>3</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
@@ -2777,7 +2777,7 @@
         <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
         <v>2</v>
@@ -2797,37 +2797,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
         <v>2</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -2851,7 +2851,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2859,40 +2859,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>3</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
@@ -2916,7 +2916,7 @@
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2924,19 +2924,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G18" t="n">
         <v>3</v>
@@ -2945,10 +2945,10 @@
         <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>3</v>
@@ -2960,10 +2960,10 @@
         <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -3001,13 +3001,13 @@
         <v>2</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" t="n">
         <v>2</v>
@@ -3016,13 +3016,13 @@
         <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
@@ -3057,22 +3057,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
         <v>3</v>
@@ -3084,10 +3084,10 @@
         <v>3</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -3122,19 +3122,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H21" t="n">
         <v>3</v>
@@ -3149,7 +3149,7 @@
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -3161,10 +3161,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>3</v>
@@ -3274,7 +3274,7 @@
         <v>0.981</v>
       </c>
       <c r="E2" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F2" t="n">
         <v>0.994851</v>
@@ -3283,13 +3283,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -3304,16 +3304,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="F3" t="n">
         <v>0.981</v>
@@ -3348,46 +3348,46 @@
         <v>0.994851</v>
       </c>
       <c r="H3" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="J3" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="R3" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="S3" t="n">
         <v>0.994851</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3413,43 +3413,43 @@
         <v>0.994851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="J4" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="P4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0.994851</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S4" t="n">
         <v>0.994851</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -3460,10 +3460,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="C5" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
         <v>0.9</v>
@@ -3487,37 +3487,37 @@
         <v>0.994851</v>
       </c>
       <c r="K5" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.9</v>
       </c>
-      <c r="M5" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="S5" t="n">
         <v>0.981</v>
       </c>
       <c r="T5" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="6">
@@ -3546,43 +3546,43 @@
         <v>0.981</v>
       </c>
       <c r="I6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="7">
@@ -3623,31 +3623,31 @@
         <v>0.994851</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="N7" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="O7" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0.994851</v>
       </c>
       <c r="S7" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T7" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="8">
@@ -3655,13 +3655,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.994851</v>
@@ -3688,28 +3688,28 @@
         <v>0.981</v>
       </c>
       <c r="M8" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="N8" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="P8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="R8" t="n">
         <v>0.981</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="T8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="U8" t="n">
         <v>0.994851</v>
@@ -3720,19 +3720,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="E9" t="n">
         <v>0.981</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="G9" t="n">
         <v>0.981</v>
@@ -3750,13 +3750,13 @@
         <v>0.981</v>
       </c>
       <c r="L9" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="M9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="N9" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="O9" t="n">
         <v>0.981</v>
@@ -3765,10 +3765,10 @@
         <v>0.981</v>
       </c>
       <c r="Q9" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.981</v>
       </c>
       <c r="S9" t="n">
         <v>0.981</v>
@@ -3785,19 +3785,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0.994851</v>
       </c>
       <c r="F10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G10" t="n">
         <v>0.994851</v>
@@ -3815,7 +3815,7 @@
         <v>0.9</v>
       </c>
       <c r="L10" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="M10" t="n">
         <v>0.981</v>
@@ -3827,13 +3827,13 @@
         <v>0.994851</v>
       </c>
       <c r="P10" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="R10" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="S10" t="n">
         <v>0.994851</v>
@@ -3853,16 +3853,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -3880,28 +3880,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="M11" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="N11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0.994851</v>
       </c>
       <c r="S11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0.994851</v>
@@ -3918,31 +3918,31 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.9</v>
       </c>
-      <c r="F12" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="J12" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -3954,25 +3954,25 @@
         <v>0.981</v>
       </c>
       <c r="O12" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="R12" t="n">
         <v>0.981</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="T12" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="U12" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="13">
@@ -3986,28 +3986,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="H13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="I13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J13" t="n">
         <v>0.981</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="L13" t="n">
         <v>0.9</v>
@@ -4022,19 +4022,19 @@
         <v>0.981</v>
       </c>
       <c r="P13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="R13" t="n">
         <v>0.994851</v>
       </c>
       <c r="S13" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0.994851</v>
@@ -4048,31 +4048,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0.994851</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="G14" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="I14" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="J14" t="n">
         <v>0.994851</v>
       </c>
       <c r="K14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0.981</v>
@@ -4093,7 +4093,7 @@
         <v>0.994851</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="S14" t="n">
         <v>0.994851</v>
@@ -4110,13 +4110,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="E15" t="n">
         <v>0.981</v>
@@ -4125,10 +4125,10 @@
         <v>0.994851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="I15" t="n">
         <v>0.981</v>
@@ -4137,10 +4137,10 @@
         <v>0.994851</v>
       </c>
       <c r="K15" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="M15" t="n">
         <v>0.981</v>
@@ -4158,7 +4158,7 @@
         <v>0.981</v>
       </c>
       <c r="R15" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="S15" t="n">
         <v>0.981</v>
@@ -4178,37 +4178,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0.994851</v>
       </c>
       <c r="F16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="I16" t="n">
         <v>0.981</v>
       </c>
       <c r="J16" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="M16" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="N16" t="n">
         <v>0.981</v>
@@ -4232,7 +4232,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="17">
@@ -4240,40 +4240,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D17" t="n">
         <v>0.994851</v>
       </c>
       <c r="E17" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="J17" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="K17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="N17" t="n">
         <v>0.994851</v>
@@ -4297,7 +4297,7 @@
         <v>0.994851</v>
       </c>
       <c r="U17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4305,19 +4305,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="E18" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="F18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="G18" t="n">
         <v>0.994851</v>
@@ -4326,10 +4326,10 @@
         <v>0.981</v>
       </c>
       <c r="I18" t="n">
-        <v>0.981</v>
+        <v>0.9</v>
       </c>
       <c r="J18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="K18" t="n">
         <v>0.994851</v>
@@ -4341,10 +4341,10 @@
         <v>0.994851</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="O18" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="P18" t="n">
         <v>0.981</v>
@@ -4382,13 +4382,13 @@
         <v>0.981</v>
       </c>
       <c r="F19" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="G19" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="I19" t="n">
         <v>0.981</v>
@@ -4397,13 +4397,13 @@
         <v>0.994851</v>
       </c>
       <c r="K19" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="M19" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0.994851</v>
@@ -4438,22 +4438,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="E20" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="G20" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="H20" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="I20" t="n">
         <v>0.994851</v>
@@ -4465,10 +4465,10 @@
         <v>0.994851</v>
       </c>
       <c r="L20" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="M20" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -4503,19 +4503,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="F21" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="H21" t="n">
         <v>0.994851</v>
@@ -4530,7 +4530,7 @@
         <v>0.981</v>
       </c>
       <c r="L21" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="M21" t="n">
         <v>0.994851</v>
@@ -4542,10 +4542,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0.994851</v>
@@ -4655,7 +4655,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="E2" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F2" t="n">
         <v>1.802348869224726</v>
@@ -4664,13 +4664,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -4685,16 +4685,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -4720,7 +4720,7 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="F3" t="n">
         <v>1.036438884255891</v>
@@ -4729,46 +4729,46 @@
         <v>1.802348869224726</v>
       </c>
       <c r="H3" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="J3" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R3" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S3" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4794,43 +4794,43 @@
         <v>1.802348869224726</v>
       </c>
       <c r="H4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="J4" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S4" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -4841,10 +4841,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C5" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="D5" t="n">
         <v>0.4342944819032518</v>
@@ -4868,37 +4868,37 @@
         <v>1.802348869224726</v>
       </c>
       <c r="K5" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="R5" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="N5" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="S5" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="T5" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="6">
@@ -4927,43 +4927,43 @@
         <v>1.036438884255891</v>
       </c>
       <c r="I6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="T6" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="7">
@@ -5004,31 +5004,31 @@
         <v>1.802348869224726</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N7" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O7" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="S7" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T7" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="8">
@@ -5036,13 +5036,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1.802348869224726</v>
@@ -5069,28 +5069,28 @@
         <v>1.036438884255891</v>
       </c>
       <c r="M8" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N8" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R8" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U8" t="n">
         <v>1.802348869224726</v>
@@ -5101,19 +5101,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D9" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E9" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G9" t="n">
         <v>1.036438884255891</v>
@@ -5131,13 +5131,13 @@
         <v>1.036438884255891</v>
       </c>
       <c r="L9" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="M9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N9" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O9" t="n">
         <v>1.036438884255891</v>
@@ -5146,10 +5146,10 @@
         <v>1.036438884255891</v>
       </c>
       <c r="Q9" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="R9" t="n">
         <v>0.4342944819032518</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.036438884255891</v>
       </c>
       <c r="S9" t="n">
         <v>1.036438884255891</v>
@@ -5166,19 +5166,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="F10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G10" t="n">
         <v>1.802348869224726</v>
@@ -5196,7 +5196,7 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="L10" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="M10" t="n">
         <v>1.036438884255891</v>
@@ -5208,13 +5208,13 @@
         <v>1.802348869224726</v>
       </c>
       <c r="P10" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R10" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S10" t="n">
         <v>1.802348869224726</v>
@@ -5234,16 +5234,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -5261,28 +5261,28 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="S11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>1.802348869224726</v>
@@ -5299,31 +5299,31 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="I12" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="F12" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="J12" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -5335,25 +5335,25 @@
         <v>1.036438884255891</v>
       </c>
       <c r="O12" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R12" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T12" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U12" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="13">
@@ -5367,28 +5367,28 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J13" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L13" t="n">
         <v>0.4342944819032518</v>
@@ -5403,19 +5403,19 @@
         <v>1.036438884255891</v>
       </c>
       <c r="P13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R13" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="S13" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>1.802348869224726</v>
@@ -5429,31 +5429,31 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G14" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H14" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="I14" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="K14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>1.036438884255891</v>
@@ -5474,7 +5474,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S14" t="n">
         <v>1.802348869224726</v>
@@ -5491,13 +5491,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E15" t="n">
         <v>1.036438884255891</v>
@@ -5506,10 +5506,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="G15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="I15" t="n">
         <v>1.036438884255891</v>
@@ -5518,10 +5518,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="K15" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M15" t="n">
         <v>1.036438884255891</v>
@@ -5539,7 +5539,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="R15" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="S15" t="n">
         <v>1.036438884255891</v>
@@ -5559,37 +5559,37 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="F16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I16" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="J16" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="M16" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N16" t="n">
         <v>1.036438884255891</v>
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="17">
@@ -5621,40 +5621,40 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D17" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="E17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="J17" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N17" t="n">
         <v>1.802348869224726</v>
@@ -5678,7 +5678,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="U17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5686,19 +5686,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E18" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="F18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G18" t="n">
         <v>1.802348869224726</v>
@@ -5707,10 +5707,10 @@
         <v>1.036438884255891</v>
       </c>
       <c r="I18" t="n">
-        <v>1.036438884255891</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="J18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="K18" t="n">
         <v>1.802348869224726</v>
@@ -5722,10 +5722,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O18" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="P18" t="n">
         <v>1.036438884255891</v>
@@ -5763,13 +5763,13 @@
         <v>1.036438884255891</v>
       </c>
       <c r="F19" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I19" t="n">
         <v>1.036438884255891</v>
@@ -5778,13 +5778,13 @@
         <v>1.802348869224726</v>
       </c>
       <c r="K19" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M19" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>1.802348869224726</v>
@@ -5819,22 +5819,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E20" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="G20" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H20" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I20" t="n">
         <v>1.802348869224726</v>
@@ -5846,10 +5846,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="L20" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M20" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -5884,19 +5884,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F21" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H21" t="n">
         <v>1.802348869224726</v>
@@ -5911,7 +5911,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="L21" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M21" t="n">
         <v>1.802348869224726</v>
@@ -5923,10 +5923,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>1.802348869224726</v>

--- a/matrices_data.xlsx
+++ b/matrices_data.xlsx
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -970,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1121,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1204,7 +1204,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -1896,7 +1896,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1905,43 +1905,43 @@
         <v>3</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O2" t="n">
         <v>3</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -1961,22 +1961,22 @@
         <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
@@ -1985,25 +1985,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U3" t="n">
         <v>3</v>
@@ -2032,43 +2032,43 @@
         <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -2100,16 +2100,16 @@
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
@@ -2118,22 +2118,22 @@
         <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -2165,10 +2165,10 @@
         <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>3</v>
@@ -2177,10 +2177,10 @@
         <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6" t="n">
         <v>3</v>
@@ -2192,10 +2192,10 @@
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>3</v>
@@ -2236,31 +2236,31 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>3</v>
       </c>
       <c r="R7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T7" t="n">
         <v>3</v>
@@ -2277,10 +2277,10 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -2301,7 +2301,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
         <v>2</v>
@@ -2310,22 +2310,22 @@
         <v>3</v>
       </c>
       <c r="N8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T8" t="n">
         <v>2</v>
@@ -2339,19 +2339,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -2372,31 +2372,31 @@
         <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T9" t="n">
         <v>3</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2407,16 +2407,16 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2437,31 +2437,31 @@
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
         <v>2</v>
       </c>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -2469,25 +2469,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -2502,28 +2502,28 @@
         <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O11" t="n">
         <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U11" t="n">
         <v>2</v>
@@ -2534,16 +2534,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>2</v>
@@ -2579,13 +2579,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T12" t="n">
         <v>2</v>
@@ -2611,22 +2611,22 @@
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H13" t="n">
         <v>3</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
         <v>1</v>
@@ -2644,19 +2644,19 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T13" t="n">
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -2664,34 +2664,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14" t="n">
         <v>2</v>
@@ -2712,16 +2712,16 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -2732,28 +2732,28 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>3</v>
@@ -2780,13 +2780,13 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -2794,34 +2794,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2848,10 +2848,10 @@
         <v>3</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -2859,13 +2859,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2877,22 +2877,22 @@
         <v>3</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
@@ -2910,13 +2910,13 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -2927,40 +2927,40 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
@@ -2975,10 +2975,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>3</v>
@@ -2989,55 +2989,55 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3054,16 +3054,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -3081,7 +3081,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
         <v>2</v>
@@ -3090,19 +3090,19 @@
         <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q20" t="n">
         <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
@@ -3119,7 +3119,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C21" t="n">
         <v>3</v>
@@ -3140,10 +3140,10 @@
         <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -3152,19 +3152,19 @@
         <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R21" t="n">
         <v>3</v>
@@ -3277,7 +3277,7 @@
         <v>0.994851</v>
       </c>
       <c r="F2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -3286,43 +3286,43 @@
         <v>0.994851</v>
       </c>
       <c r="I2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0.994851</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="O2" t="n">
         <v>0.994851</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="3">
@@ -3342,49 +3342,49 @@
         <v>0.981</v>
       </c>
       <c r="F3" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.9</v>
       </c>
-      <c r="J3" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="U3" t="n">
         <v>0.994851</v>
@@ -3413,43 +3413,43 @@
         <v>0.994851</v>
       </c>
       <c r="H4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0.994851</v>
       </c>
       <c r="L4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>0.994851</v>
       </c>
       <c r="N4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S4" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>0.994851</v>
       </c>
       <c r="I5" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="M5" t="n">
         <v>0.981</v>
@@ -3499,22 +3499,22 @@
         <v>0.994851</v>
       </c>
       <c r="O5" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0.994851</v>
       </c>
       <c r="R5" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="S5" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T5" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D6" t="n">
         <v>0.981</v>
@@ -3546,22 +3546,22 @@
         <v>0.981</v>
       </c>
       <c r="I6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.9</v>
       </c>
-      <c r="J6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.994851</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="O6" t="n">
         <v>0.994851</v>
@@ -3573,10 +3573,10 @@
         <v>0.981</v>
       </c>
       <c r="R6" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="S6" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -3593,7 +3593,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0.994851</v>
@@ -3617,31 +3617,31 @@
         <v>0.994851</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="L7" t="n">
         <v>0.994851</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="N7" t="n">
         <v>0.994851</v>
       </c>
       <c r="O7" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0.994851</v>
       </c>
       <c r="R7" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="S7" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T7" t="n">
         <v>0.994851</v>
@@ -3658,10 +3658,10 @@
         <v>0.994851</v>
       </c>
       <c r="C8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.994851</v>
@@ -3682,7 +3682,7 @@
         <v>0.981</v>
       </c>
       <c r="K8" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="L8" t="n">
         <v>0.981</v>
@@ -3691,22 +3691,22 @@
         <v>0.994851</v>
       </c>
       <c r="N8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="S8" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="T8" t="n">
         <v>0.981</v>
@@ -3720,19 +3720,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="G9" t="n">
         <v>0.981</v>
@@ -3753,31 +3753,31 @@
         <v>0.994851</v>
       </c>
       <c r="M9" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T9" t="n">
         <v>0.994851</v>
       </c>
       <c r="U9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3788,16 +3788,16 @@
         <v>0.994851</v>
       </c>
       <c r="C10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="D10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0.994851</v>
@@ -3818,31 +3818,31 @@
         <v>0.981</v>
       </c>
       <c r="M10" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="N10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="T10" t="n">
         <v>0.981</v>
       </c>
       <c r="U10" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
     </row>
     <row r="11">
@@ -3850,25 +3850,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="D11" t="n">
         <v>0.994851</v>
       </c>
       <c r="E11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0.994851</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="H11" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="I11" t="n">
         <v>0.981</v>
@@ -3883,28 +3883,28 @@
         <v>0.9</v>
       </c>
       <c r="M11" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.9</v>
       </c>
-      <c r="N11" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0.981</v>
-      </c>
       <c r="T11" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="U11" t="n">
         <v>0.981</v>
@@ -3915,16 +3915,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="C12" t="n">
         <v>0.994851</v>
       </c>
       <c r="D12" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9</v>
+        <v>0.994851</v>
       </c>
       <c r="F12" t="n">
         <v>0.981</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="S12" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="T12" t="n">
         <v>0.981</v>
@@ -3992,22 +3992,22 @@
         <v>0.981</v>
       </c>
       <c r="F13" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="H13" t="n">
         <v>0.994851</v>
       </c>
       <c r="I13" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="K13" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="L13" t="n">
         <v>0.9</v>
@@ -4025,19 +4025,19 @@
         <v>0.994851</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="R13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="S13" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T13" t="n">
         <v>0.994851</v>
       </c>
       <c r="U13" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="14">
@@ -4045,34 +4045,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="C14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0.994851</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="G14" t="n">
         <v>0.994851</v>
       </c>
       <c r="H14" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="L14" t="n">
         <v>0.981</v>
@@ -4093,16 +4093,16 @@
         <v>0.994851</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="S14" t="n">
         <v>0.994851</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="15">
@@ -4113,28 +4113,28 @@
         <v>0.994851</v>
       </c>
       <c r="C15" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0.994851</v>
       </c>
       <c r="G15" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0.994851</v>
@@ -4161,13 +4161,13 @@
         <v>0.994851</v>
       </c>
       <c r="S15" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="T15" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16">
@@ -4175,34 +4175,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="C16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0.994851</v>
       </c>
       <c r="G16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -4229,10 +4229,10 @@
         <v>0.994851</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
@@ -4240,13 +4240,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0.994851</v>
@@ -4258,22 +4258,22 @@
         <v>0.994851</v>
       </c>
       <c r="H17" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="N17" t="n">
         <v>0.994851</v>
@@ -4291,13 +4291,13 @@
         <v>0.9</v>
       </c>
       <c r="S17" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0.994851</v>
       </c>
       <c r="U17" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="18">
@@ -4308,40 +4308,40 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="E18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="F18" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="G18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="H18" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="I18" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="M18" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="O18" t="n">
         <v>0.994851</v>
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0.994851</v>
@@ -4370,55 +4370,55 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="C19" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="D19" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="E19" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="F19" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="H19" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.9</v>
       </c>
-      <c r="I19" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.981</v>
-      </c>
       <c r="L19" t="n">
-        <v>0.9</v>
+        <v>0.981</v>
       </c>
       <c r="M19" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="N19" t="n">
         <v>0.994851</v>
       </c>
       <c r="O19" t="n">
-        <v>0.981</v>
+        <v>0.994851</v>
       </c>
       <c r="P19" t="n">
         <v>0.994851</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -4435,16 +4435,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.994851</v>
       </c>
       <c r="E20" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -4462,7 +4462,7 @@
         <v>0.981</v>
       </c>
       <c r="K20" t="n">
-        <v>0.994851</v>
+        <v>0.9</v>
       </c>
       <c r="L20" t="n">
         <v>0.981</v>
@@ -4471,19 +4471,19 @@
         <v>0.994851</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="O20" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="Q20" t="n">
         <v>0.994851</v>
       </c>
       <c r="R20" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0.9</v>
@@ -4500,7 +4500,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.981</v>
       </c>
       <c r="C21" t="n">
         <v>0.994851</v>
@@ -4521,31 +4521,31 @@
         <v>0.994851</v>
       </c>
       <c r="I21" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.994851</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.981</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.9</v>
       </c>
-      <c r="K21" t="n">
-        <v>0.981</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.994851</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.994851</v>
+        <v>0.981</v>
       </c>
       <c r="R21" t="n">
         <v>0.994851</v>
@@ -4658,7 +4658,7 @@
         <v>1.802348869224726</v>
       </c>
       <c r="F2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -4667,43 +4667,43 @@
         <v>1.802348869224726</v>
       </c>
       <c r="I2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O2" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="3">
@@ -4723,49 +4723,49 @@
         <v>1.036438884255891</v>
       </c>
       <c r="F3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="J3" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U3" t="n">
         <v>1.802348869224726</v>
@@ -4794,43 +4794,43 @@
         <v>1.802348869224726</v>
       </c>
       <c r="H4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="L4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="N4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -4862,16 +4862,16 @@
         <v>1.802348869224726</v>
       </c>
       <c r="I5" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M5" t="n">
         <v>1.036438884255891</v>
@@ -4880,22 +4880,22 @@
         <v>1.802348869224726</v>
       </c>
       <c r="O5" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="R5" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S5" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T5" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -4906,10 +4906,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D6" t="n">
         <v>1.036438884255891</v>
@@ -4927,22 +4927,22 @@
         <v>1.036438884255891</v>
       </c>
       <c r="I6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="M6" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="J6" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.802348869224726</v>
-      </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O6" t="n">
         <v>1.802348869224726</v>
@@ -4954,10 +4954,10 @@
         <v>1.036438884255891</v>
       </c>
       <c r="R6" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="S6" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -4974,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>1.802348869224726</v>
@@ -4998,31 +4998,31 @@
         <v>1.802348869224726</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L7" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N7" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="O7" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="R7" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S7" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T7" t="n">
         <v>1.802348869224726</v>
@@ -5039,10 +5039,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="C8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>1.802348869224726</v>
@@ -5063,7 +5063,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="K8" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="L8" t="n">
         <v>1.036438884255891</v>
@@ -5072,22 +5072,22 @@
         <v>1.802348869224726</v>
       </c>
       <c r="N8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S8" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T8" t="n">
         <v>1.036438884255891</v>
@@ -5101,19 +5101,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="G9" t="n">
         <v>1.036438884255891</v>
@@ -5134,31 +5134,31 @@
         <v>1.802348869224726</v>
       </c>
       <c r="M9" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T9" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="U9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -5169,16 +5169,16 @@
         <v>1.802348869224726</v>
       </c>
       <c r="C10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="D10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>1.802348869224726</v>
@@ -5199,31 +5199,31 @@
         <v>1.036438884255891</v>
       </c>
       <c r="M10" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T10" t="n">
         <v>1.036438884255891</v>
       </c>
       <c r="U10" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
     </row>
     <row r="11">
@@ -5231,25 +5231,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C11" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D11" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="E11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H11" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="I11" t="n">
         <v>1.036438884255891</v>
@@ -5264,28 +5264,28 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="M11" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="N11" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.036438884255891</v>
-      </c>
       <c r="T11" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="U11" t="n">
         <v>1.036438884255891</v>
@@ -5296,16 +5296,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C12" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="D12" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F12" t="n">
         <v>1.036438884255891</v>
@@ -5341,13 +5341,13 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="T12" t="n">
         <v>1.036438884255891</v>
@@ -5373,22 +5373,22 @@
         <v>1.036438884255891</v>
       </c>
       <c r="F13" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H13" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="I13" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="K13" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="L13" t="n">
         <v>0.4342944819032518</v>
@@ -5406,19 +5406,19 @@
         <v>1.802348869224726</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="R13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="S13" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T13" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="U13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="14">
@@ -5426,34 +5426,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="G14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="H14" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L14" t="n">
         <v>1.036438884255891</v>
@@ -5474,16 +5474,16 @@
         <v>1.802348869224726</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="S14" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
     </row>
     <row r="15">
@@ -5494,28 +5494,28 @@
         <v>1.802348869224726</v>
       </c>
       <c r="C15" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="G15" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1.802348869224726</v>
@@ -5542,13 +5542,13 @@
         <v>1.802348869224726</v>
       </c>
       <c r="S15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="T15" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
     </row>
     <row r="16">
@@ -5556,34 +5556,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="C16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="G16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -5610,10 +5610,10 @@
         <v>1.802348869224726</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
     </row>
     <row r="17">
@@ -5621,13 +5621,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>1.802348869224726</v>
@@ -5639,22 +5639,22 @@
         <v>1.802348869224726</v>
       </c>
       <c r="H17" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N17" t="n">
         <v>1.802348869224726</v>
@@ -5672,13 +5672,13 @@
         <v>0.4342944819032518</v>
       </c>
       <c r="S17" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="U17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
     </row>
     <row r="18">
@@ -5689,40 +5689,40 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="F18" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="G18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="H18" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="I18" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="M18" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="O18" t="n">
         <v>1.802348869224726</v>
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>1.802348869224726</v>
@@ -5751,55 +5751,55 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C19" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="D19" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="E19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="F19" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="H19" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="K19" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="I19" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="K19" t="n">
-        <v>1.036438884255891</v>
-      </c>
       <c r="L19" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="M19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="N19" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="O19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="P19" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -5816,16 +5816,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.802348869224726</v>
       </c>
       <c r="E20" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -5843,7 +5843,7 @@
         <v>1.036438884255891</v>
       </c>
       <c r="K20" t="n">
-        <v>1.802348869224726</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="L20" t="n">
         <v>1.036438884255891</v>
@@ -5852,19 +5852,19 @@
         <v>1.802348869224726</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="O20" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="Q20" t="n">
         <v>1.802348869224726</v>
       </c>
       <c r="R20" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0.4342944819032518</v>
@@ -5881,7 +5881,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="C21" t="n">
         <v>1.802348869224726</v>
@@ -5902,31 +5902,31 @@
         <v>1.802348869224726</v>
       </c>
       <c r="I21" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.802348869224726</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.036438884255891</v>
+      </c>
+      <c r="N21" t="n">
         <v>0.4342944819032518</v>
       </c>
-      <c r="K21" t="n">
-        <v>1.036438884255891</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.802348869224726</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>0.4342944819032518</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.802348869224726</v>
+        <v>1.036438884255891</v>
       </c>
       <c r="R21" t="n">
         <v>1.802348869224726</v>

--- a/matrices_data.xlsx
+++ b/matrices_data.xlsx
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -557,7 +557,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -577,7 +577,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -666,10 +666,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -793,10 +793,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1139,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1340,7 +1340,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1555,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -1700,7 +1700,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1724,7 +1724,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -1774,13 +1774,13 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -1893,55 +1893,55 @@
         <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1958,55 +1958,55 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L3" t="n">
         <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2029,37 +2029,37 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
         <v>3</v>
@@ -2071,7 +2071,7 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -2079,10 +2079,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -2097,43 +2097,43 @@
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
         <v>3</v>
       </c>
       <c r="R5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -2144,10 +2144,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
@@ -2168,22 +2168,22 @@
         <v>3</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -2192,16 +2192,16 @@
         <v>2</v>
       </c>
       <c r="R6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2209,13 +2209,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -2236,34 +2236,34 @@
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>2</v>
       </c>
       <c r="S7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>2</v>
@@ -2301,37 +2301,37 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2339,16 +2339,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>3</v>
@@ -2366,34 +2366,34 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2404,19 +2404,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
@@ -2431,16 +2431,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -2449,19 +2449,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2469,31 +2469,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2508,25 +2508,25 @@
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2540,25 +2540,25 @@
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -2576,22 +2576,22 @@
         <v>3</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2599,31 +2599,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2641,13 +2641,13 @@
         <v>2</v>
       </c>
       <c r="P13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S13" t="n">
         <v>3</v>
@@ -2656,7 +2656,7 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -2667,28 +2667,28 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K14" t="n">
         <v>3</v>
@@ -2712,7 +2712,7 @@
         <v>3</v>
       </c>
       <c r="R14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S14" t="n">
         <v>3</v>
@@ -2721,7 +2721,7 @@
         <v>2</v>
       </c>
       <c r="U14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
@@ -2729,34 +2729,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
         <v>3</v>
@@ -2780,13 +2780,13 @@
         <v>3</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
@@ -2797,25 +2797,25 @@
         <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -2824,10 +2824,10 @@
         <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N16" t="n">
         <v>2</v>
@@ -2851,7 +2851,7 @@
         <v>2</v>
       </c>
       <c r="U16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -2859,13 +2859,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -2874,25 +2874,25 @@
         <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>3</v>
@@ -2910,13 +2910,13 @@
         <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18">
@@ -2924,43 +2924,43 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O18" t="n">
         <v>3</v>
@@ -2975,13 +2975,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2989,10 +2989,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>2</v>
@@ -3001,25 +3001,25 @@
         <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
@@ -3028,25 +3028,25 @@
         <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3054,37 +3054,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>3</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
@@ -3093,7 +3093,7 @@
         <v>2</v>
       </c>
       <c r="O20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>2</v>
@@ -3102,10 +3102,10 @@
         <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -3119,58 +3119,58 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>1</v>
@@ -3268,61 +3268,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="E2" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J2" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K2" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="L2" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="N2" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="O2" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P2" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="S2" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="T2" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3330,64 +3330,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E3" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J3" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K3" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="L3" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="T3" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U3" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3395,64 +3395,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="G4" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="K4" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="R4" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="S4" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="T4" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
     </row>
     <row r="5">
@@ -3460,61 +3460,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="C5" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G5" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="H5" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="L5" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="M5" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="N5" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="R5" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S5" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -3525,64 +3525,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="C6" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H6" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="I6" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K6" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="L6" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.9</v>
+        <v>0.625</v>
       </c>
       <c r="N6" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="O6" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P6" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="R6" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3590,61 +3590,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="E7" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I7" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="J7" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="K7" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="L7" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="M7" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="N7" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="R7" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="S7" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="T7" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -3655,64 +3655,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="F8" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J8" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9</v>
+        <v>0.6923828125</v>
       </c>
       <c r="L8" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="M8" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="R8" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="S8" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U8" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3720,61 +3720,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="F9" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="S9" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="T9" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3785,43 +3785,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="C10" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="G10" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="H10" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="I10" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -3830,19 +3830,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S10" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="T10" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3850,64 +3850,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="F11" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="G11" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9</v>
+        <v>0.6923828125</v>
       </c>
       <c r="I11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="N11" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P11" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3915,64 +3915,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E12" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="F12" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="G12" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="I12" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="J12" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="O12" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="R12" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S12" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="T12" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U12" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -3980,64 +3980,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9</v>
+        <v>0.625</v>
       </c>
       <c r="G13" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="H13" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J13" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K13" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="L13" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="P13" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="R13" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="S13" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="T13" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="U13" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
     </row>
     <row r="14">
@@ -4045,64 +4045,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="F14" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="G14" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K14" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="L14" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="M14" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P14" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="R14" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S14" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="T14" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="U14" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="15">
@@ -4110,64 +4110,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="F15" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="L15" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="M15" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="N15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="R15" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="S15" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="T15" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="U15" t="n">
-        <v>0.9</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="16">
@@ -4175,64 +4175,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="F16" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="M16" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="O16" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="R16" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="S16" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="T16" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="U16" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
     </row>
     <row r="17">
@@ -4240,64 +4240,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="E17" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="F17" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="G17" t="n">
-        <v>0.994851</v>
+        <v>0.5</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="M17" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="N17" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="O17" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="P17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="T17" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="U17" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
     </row>
     <row r="18">
@@ -4305,64 +4305,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="D18" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="E18" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="G18" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="M18" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="N18" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="O18" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="P18" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="U18" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -4370,64 +4370,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="E19" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="G19" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="H19" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="I19" t="n">
-        <v>0.994851</v>
+        <v>0.625</v>
       </c>
       <c r="J19" t="n">
-        <v>0.981</v>
+        <v>0.671875</v>
       </c>
       <c r="K19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="M19" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="N19" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="O19" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P19" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4435,64 +4435,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.994851</v>
+        <v>0.6923828125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="I20" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="M20" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="N20" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="O20" t="n">
-        <v>0.981</v>
+        <v>0.5</v>
       </c>
       <c r="P20" t="n">
-        <v>0.981</v>
+        <v>0.625</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.994851</v>
+        <v>0.671875</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S20" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="21">
@@ -4500,61 +4500,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.6923828125</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="N21" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="O21" t="n">
-        <v>0.9</v>
+        <v>0.625</v>
       </c>
       <c r="P21" t="n">
-        <v>0.9</v>
+        <v>0.671875</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.981</v>
+        <v>0.6923828125</v>
       </c>
       <c r="R21" t="n">
-        <v>0.994851</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0.981</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9</v>
+        <v>0.5</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -4649,61 +4649,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="D2" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E2" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="H2" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J2" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K2" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="L2" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N2" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O2" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P2" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S2" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4711,64 +4711,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="E3" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="F3" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H3" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J3" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K3" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="L3" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S3" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T3" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U3" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4776,64 +4776,64 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="F4" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G4" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="K4" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="M4" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R4" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S4" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="T4" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
     </row>
     <row r="5">
@@ -4841,61 +4841,61 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C5" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="G5" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H5" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="L5" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="M5" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N5" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R5" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S5" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -4906,64 +4906,64 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C6" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D6" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="H6" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I6" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K6" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="L6" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="M6" t="n">
-        <v>0.4342944819032518</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N6" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O6" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P6" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R6" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4971,61 +4971,61 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D7" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E7" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="I7" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="J7" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="K7" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="L7" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="M7" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N7" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="R7" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="S7" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="T7" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -5036,64 +5036,64 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C8" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="E8" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F8" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="J8" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="K8" t="n">
-        <v>0.4342944819032518</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="L8" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="M8" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R8" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="S8" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="T8" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U8" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -5101,61 +5101,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F9" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G9" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H9" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="K9" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S9" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="T9" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5166,43 +5166,43 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="C10" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="G10" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H10" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -5211,19 +5211,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S10" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T10" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -5231,64 +5231,64 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="C11" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="D11" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F11" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G11" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4342944819032518</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="I11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="M11" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N11" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O11" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P11" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -5296,64 +5296,64 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E12" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F12" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="G12" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H12" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="I12" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="J12" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="N12" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O12" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R12" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S12" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="T12" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U12" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -5361,64 +5361,64 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="E13" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4342944819032518</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G13" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H13" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J13" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K13" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="L13" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="O13" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="P13" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R13" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S13" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T13" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="U13" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
     </row>
     <row r="14">
@@ -5426,64 +5426,64 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="E14" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="F14" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G14" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K14" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="L14" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="P14" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R14" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S14" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T14" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
     </row>
     <row r="15">
@@ -5491,64 +5491,64 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F15" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="L15" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="M15" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N15" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R15" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="S15" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="T15" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="U15" t="n">
-        <v>0.4342944819032518</v>
+        <v>4.918754537671171</v>
       </c>
     </row>
     <row r="16">
@@ -5556,64 +5556,64 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F16" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="M16" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="N16" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O16" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="R16" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="S16" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T16" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="U16" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
     </row>
     <row r="17">
@@ -5621,64 +5621,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E17" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F17" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G17" t="n">
-        <v>1.802348869224726</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="M17" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N17" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O17" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="T17" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="U17" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
     </row>
     <row r="18">
@@ -5686,64 +5686,64 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="D18" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E18" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="F18" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G18" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H18" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="M18" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N18" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="O18" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P18" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="U18" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -5751,64 +5751,64 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D19" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="E19" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G19" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="H19" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="I19" t="n">
-        <v>1.802348869224726</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="J19" t="n">
-        <v>1.036438884255891</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="K19" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="M19" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N19" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O19" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P19" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -5816,64 +5816,64 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="D20" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.802348869224726</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="H20" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="I20" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="M20" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="N20" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O20" t="n">
-        <v>1.036438884255891</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="P20" t="n">
-        <v>1.036438884255891</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.802348869224726</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S20" t="n">
-        <v>0.4342944819032518</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
     </row>
     <row r="21">
@@ -5881,61 +5881,61 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="N21" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4342944819032518</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="P21" t="n">
-        <v>0.4342944819032518</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.036438884255891</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="R21" t="n">
-        <v>1.802348869224726</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>1.036438884255891</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4342944819032518</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>

--- a/matrices_data.xlsx
+++ b/matrices_data.xlsx
@@ -506,10 +506,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -568,16 +568,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -669,7 +669,7 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -701,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -896,28 +896,28 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -976,13 +976,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1041,10 +1041,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1322,7 +1322,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -1458,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1656,13 +1656,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -1887,28 +1887,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>4</v>
@@ -1917,25 +1917,25 @@
         <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" t="n">
         <v>3</v>
       </c>
       <c r="O2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1949,61 +1949,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
+        <v>3</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>4</v>
+      </c>
+      <c r="J3" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>4</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>2</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>3</v>
-      </c>
-      <c r="J3" t="n">
-        <v>4</v>
-      </c>
-      <c r="K3" t="n">
-        <v>4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3</v>
-      </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="n">
-        <v>2</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>3</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2014,31 +2014,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>3</v>
@@ -2050,28 +2050,28 @@
         <v>1</v>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="n">
         <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2079,13 +2079,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -2100,34 +2100,34 @@
         <v>2</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>3</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>4</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>3</v>
       </c>
-      <c r="L5" t="n">
-        <v>2</v>
-      </c>
       <c r="M5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -2144,61 +2144,61 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4</v>
+      </c>
+      <c r="J6" t="n">
         <v>2</v>
       </c>
-      <c r="E6" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
+        <v>3</v>
+      </c>
+      <c r="L6" t="n">
         <v>2</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>4</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>2</v>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>3</v>
-      </c>
-      <c r="O6" t="n">
-        <v>4</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
-      <c r="S6" t="n">
-        <v>3</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -2209,13 +2209,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>2</v>
@@ -2227,40 +2227,40 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>3</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
         <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
       </c>
       <c r="N7" t="n">
         <v>3</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
-      <c r="S7" t="n">
-        <v>2</v>
       </c>
       <c r="T7" t="n">
         <v>4</v>
@@ -2274,31 +2274,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
       </c>
       <c r="F8" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" t="n">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>1</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>4</v>
@@ -2307,28 +2307,28 @@
         <v>3</v>
       </c>
       <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="n">
         <v>2</v>
-      </c>
-      <c r="N8" t="n">
-        <v>2</v>
-      </c>
-      <c r="O8" t="n">
-        <v>3</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>2</v>
-      </c>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
-      <c r="T8" t="n">
-        <v>4</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -2339,61 +2339,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>3</v>
       </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2</v>
       </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
-      </c>
-      <c r="G9" t="n">
-        <v>2</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3</v>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="n">
-        <v>4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>3</v>
-      </c>
       <c r="R9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S9" t="n">
         <v>2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -2404,61 +2404,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>3</v>
       </c>
-      <c r="E10" t="n">
-        <v>4</v>
-      </c>
       <c r="F10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G10" t="n">
         <v>3</v>
       </c>
       <c r="H10" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>4</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>2</v>
       </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>4</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" t="n">
-        <v>4</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>3</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -2472,19 +2472,19 @@
         <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>3</v>
       </c>
       <c r="E11" t="n">
+        <v>4</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>2</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -2508,13 +2508,13 @@
         <v>3</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2537,28 +2537,28 @@
         <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
+        <v>3</v>
+      </c>
+      <c r="F12" t="n">
         <v>2</v>
       </c>
-      <c r="F12" t="n">
-        <v>1</v>
-      </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>3</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>4</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1</v>
@@ -2573,22 +2573,22 @@
         <v>2</v>
       </c>
       <c r="O12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>4</v>
       </c>
       <c r="T12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -2599,31 +2599,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>4</v>
+      </c>
+      <c r="F13" t="n">
         <v>3</v>
       </c>
-      <c r="C13" t="n">
+      <c r="G13" t="n">
         <v>2</v>
       </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>2</v>
-      </c>
-      <c r="G13" t="n">
-        <v>3</v>
-      </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -2638,25 +2638,25 @@
         <v>1</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2667,28 +2667,28 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
-        <v>1</v>
-      </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G14" t="n">
         <v>3</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>3</v>
@@ -2703,25 +2703,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2729,44 +2729,44 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>2</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
         <v>3</v>
       </c>
-      <c r="F15" t="n">
+      <c r="N15" t="n">
         <v>4</v>
       </c>
-      <c r="G15" t="n">
-        <v>3</v>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-      <c r="I15" t="n">
-        <v>4</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>4</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3</v>
-      </c>
-      <c r="M15" t="n">
-        <v>2</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1</v>
-      </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
@@ -2774,19 +2774,19 @@
         <v>1</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2794,43 +2794,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>2</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>3</v>
       </c>
-      <c r="C16" t="n">
-        <v>3</v>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>4</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3</v>
-      </c>
-      <c r="L16" t="n">
-        <v>2</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>1</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2859,64 +2859,64 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>2</v>
       </c>
-      <c r="C17" t="n">
-        <v>3</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3</v>
-      </c>
-      <c r="E17" t="n">
-        <v>3</v>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>3</v>
-      </c>
       <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1</v>
+      </c>
+      <c r="S17" t="n">
         <v>4</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
-      <c r="L17" t="n">
-        <v>3</v>
-      </c>
-      <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
       </c>
       <c r="T17" t="n">
         <v>3</v>
       </c>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2924,61 +2924,61 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
         <v>3</v>
       </c>
-      <c r="C18" t="n">
-        <v>4</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" t="n">
-        <v>4</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="n">
+      <c r="T18" t="n">
         <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>3</v>
-      </c>
-      <c r="J18" t="n">
-        <v>4</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>4</v>
-      </c>
-      <c r="M18" t="n">
-        <v>3</v>
-      </c>
-      <c r="N18" t="n">
-        <v>4</v>
-      </c>
-      <c r="O18" t="n">
-        <v>3</v>
-      </c>
-      <c r="P18" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1</v>
-      </c>
-      <c r="T18" t="n">
-        <v>4</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -2989,22 +2989,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>3</v>
       </c>
       <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
         <v>3</v>
-      </c>
-      <c r="G19" t="n">
-        <v>2</v>
       </c>
       <c r="H19" t="n">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -3022,28 +3022,28 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
         <v>3</v>
       </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="n">
-        <v>4</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>2</v>
-      </c>
-      <c r="R19" t="n">
-        <v>1</v>
-      </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -3057,61 +3057,61 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>4</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>4</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>3</v>
       </c>
       <c r="R20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3152,19 +3152,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -3268,28 +3268,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>0.5</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.625</v>
-      </c>
       <c r="E2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5</v>
+        <v>0.6923828125</v>
       </c>
       <c r="H2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0.6923828125</v>
@@ -3298,25 +3298,25 @@
         <v>0.671875</v>
       </c>
       <c r="M2" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="N2" t="n">
         <v>0.671875</v>
       </c>
       <c r="O2" t="n">
-        <v>0.6923828125</v>
+        <v>0.5</v>
       </c>
       <c r="P2" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -3330,61 +3330,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.5</v>
+        <v>0.671875</v>
       </c>
       <c r="F3" t="n">
         <v>0.625</v>
       </c>
       <c r="G3" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.625</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>0.625</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>0.671875</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0.6923828125</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -3395,31 +3395,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="G4" t="n">
-        <v>0.625</v>
+        <v>0.671875</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0.671875</v>
@@ -3431,28 +3431,28 @@
         <v>0.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="O4" t="n">
         <v>0.625</v>
       </c>
       <c r="P4" t="n">
-        <v>0.625</v>
+        <v>0.671875</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3460,13 +3460,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5</v>
+        <v>0.671875</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -3481,34 +3481,34 @@
         <v>0.625</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.671875</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>0.6923828125</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>0.671875</v>
       </c>
-      <c r="L5" t="n">
-        <v>0.625</v>
-      </c>
       <c r="M5" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="N5" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0.671875</v>
@@ -3525,13 +3525,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0.625</v>
       </c>
       <c r="D6" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="E6" t="n">
         <v>0.5</v>
@@ -3543,43 +3543,43 @@
         <v>0.5</v>
       </c>
       <c r="H6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.625</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.671875</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="N6" t="n">
         <v>0.6923828125</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>0.625</v>
       </c>
-      <c r="L6" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>0.671875</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3590,13 +3590,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5</v>
+        <v>0.6923828125</v>
       </c>
       <c r="C7" t="n">
-        <v>0.625</v>
+        <v>0.671875</v>
       </c>
       <c r="D7" t="n">
-        <v>0.625</v>
+        <v>0.671875</v>
       </c>
       <c r="E7" t="n">
         <v>0.625</v>
@@ -3608,40 +3608,40 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5</v>
+        <v>0.625</v>
       </c>
       <c r="I7" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0.671875</v>
       </c>
       <c r="K7" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="L7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M7" t="n">
         <v>0.625</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.671875</v>
       </c>
       <c r="N7" t="n">
         <v>0.671875</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>0.671875</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="S7" t="n">
-        <v>0.625</v>
       </c>
       <c r="T7" t="n">
         <v>0.6923828125</v>
@@ -3655,31 +3655,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0.625</v>
       </c>
       <c r="F8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G8" t="n">
         <v>0.625</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.5</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.625</v>
       </c>
       <c r="K8" t="n">
         <v>0.6923828125</v>
@@ -3688,28 +3688,28 @@
         <v>0.671875</v>
       </c>
       <c r="M8" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="N8" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="S8" t="n">
         <v>0.5</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -3720,61 +3720,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.671875</v>
       </c>
-      <c r="C9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>0.625</v>
       </c>
-      <c r="E9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="R9" t="n">
         <v>0.5</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0.671875</v>
       </c>
       <c r="S9" t="n">
         <v>0.625</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -3785,61 +3785,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>0.671875</v>
       </c>
-      <c r="E10" t="n">
-        <v>0.6923828125</v>
-      </c>
       <c r="F10" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="G10" t="n">
         <v>0.671875</v>
       </c>
       <c r="H10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>0.625</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.671875</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -3853,19 +3853,19 @@
         <v>0.6923828125</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.671875</v>
       </c>
       <c r="E11" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.671875</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.625</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.671875</v>
       </c>
       <c r="H11" t="n">
         <v>0.6923828125</v>
@@ -3889,13 +3889,13 @@
         <v>0.671875</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -3918,28 +3918,28 @@
         <v>0.671875</v>
       </c>
       <c r="C12" t="n">
-        <v>0.671875</v>
+        <v>0.6923828125</v>
       </c>
       <c r="D12" t="n">
         <v>0.625</v>
       </c>
       <c r="E12" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.625</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.5</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0.625</v>
       </c>
       <c r="H12" t="n">
         <v>0.671875</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.6923828125</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0.5</v>
@@ -3954,22 +3954,22 @@
         <v>0.625</v>
       </c>
       <c r="O12" t="n">
-        <v>0.671875</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P12" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0.6923828125</v>
       </c>
       <c r="T12" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -3980,31 +3980,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="C13" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.5</v>
       </c>
       <c r="E13" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.671875</v>
+      </c>
+      <c r="G13" t="n">
         <v>0.625</v>
       </c>
-      <c r="F13" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.671875</v>
-      </c>
       <c r="H13" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="I13" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0.625</v>
@@ -4019,25 +4019,25 @@
         <v>0.5</v>
       </c>
       <c r="O13" t="n">
-        <v>0.625</v>
+        <v>0.671875</v>
       </c>
       <c r="P13" t="n">
-        <v>0.5</v>
+        <v>0.6923828125</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -4048,28 +4048,28 @@
         <v>0.671875</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>0.625</v>
       </c>
-      <c r="D14" t="n">
-        <v>0.5</v>
-      </c>
       <c r="E14" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.671875</v>
+        <v>0.6923828125</v>
       </c>
       <c r="G14" t="n">
         <v>0.671875</v>
       </c>
       <c r="H14" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0.671875</v>
@@ -4084,25 +4084,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5</v>
+        <v>0.6923828125</v>
       </c>
       <c r="P14" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -4110,43 +4110,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6923828125</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>0.625</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="M15" t="n">
         <v>0.671875</v>
       </c>
-      <c r="F15" t="n">
+      <c r="N15" t="n">
         <v>0.6923828125</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0.5</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -4155,19 +4155,19 @@
         <v>0.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -4175,43 +4175,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>0.671875</v>
       </c>
-      <c r="C16" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.625</v>
-      </c>
       <c r="E16" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>0.6923828125</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.5</v>
-      </c>
       <c r="N16" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0.5</v>
@@ -4220,19 +4220,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -4240,49 +4240,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0.625</v>
       </c>
-      <c r="C17" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.671875</v>
-      </c>
       <c r="J17" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -4291,13 +4291,13 @@
         <v>0.5</v>
       </c>
       <c r="S17" t="n">
-        <v>0.625</v>
+        <v>0.6923828125</v>
       </c>
       <c r="T17" t="n">
         <v>0.671875</v>
       </c>
       <c r="U17" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4305,49 +4305,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>0.6923828125</v>
       </c>
-      <c r="D18" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0.625</v>
-      </c>
       <c r="I18" t="n">
-        <v>0.671875</v>
+        <v>0.5</v>
       </c>
       <c r="J18" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0.5</v>
@@ -4356,10 +4356,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0.5</v>
+        <v>0.671875</v>
       </c>
       <c r="T18" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -4370,22 +4370,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="D19" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0.671875</v>
       </c>
       <c r="F19" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G19" t="n">
         <v>0.671875</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0.625</v>
       </c>
       <c r="H19" t="n">
         <v>0.5</v>
@@ -4394,7 +4394,7 @@
         <v>0.625</v>
       </c>
       <c r="J19" t="n">
-        <v>0.671875</v>
+        <v>0.625</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -4403,28 +4403,28 @@
         <v>0.6923828125</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.6923828125</v>
+      </c>
+      <c r="R19" t="n">
         <v>0.671875</v>
       </c>
-      <c r="N19" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0.6923828125</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0.671875</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0.625</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>0.5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -4438,61 +4438,61 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6923828125</v>
+        <v>0.671875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0.6923828125</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="G20" t="n">
         <v>0.6923828125</v>
       </c>
       <c r="H20" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.671875</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0.671875</v>
       </c>
       <c r="R20" t="n">
-        <v>0.6923828125</v>
+        <v>0.625</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -4533,19 +4533,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.625</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.671875</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.6923828125</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -4649,28 +4649,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.442695040888963</v>
       </c>
-      <c r="D2" t="n">
-        <v>4.918754537671171</v>
-      </c>
       <c r="E2" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.442695040888963</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="H2" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>27.90225239031517</v>
@@ -4679,25 +4679,25 @@
         <v>12.40763022708979</v>
       </c>
       <c r="M2" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="N2" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="O2" t="n">
-        <v>27.90225239031517</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="P2" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -4711,61 +4711,61 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.442695040888963</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="F3" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="G3" t="n">
+        <v>12.40763022708979</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.442695040888963</v>
+      </c>
+      <c r="I3" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="J3" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="I3" t="n">
+      <c r="T3" t="n">
         <v>12.40763022708979</v>
-      </c>
-      <c r="J3" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="K3" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="O3" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="P3" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="R3" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="S3" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="T3" t="n">
-        <v>27.90225239031517</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -4776,31 +4776,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.918754537671171</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="C4" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="G4" t="n">
-        <v>4.918754537671171</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="H4" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>12.40763022708979</v>
@@ -4812,28 +4812,28 @@
         <v>1.442695040888963</v>
       </c>
       <c r="N4" t="n">
-        <v>1.442695040888963</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="O4" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="P4" t="n">
-        <v>4.918754537671171</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="Q4" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4841,13 +4841,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.442695040888963</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D5" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -4862,34 +4862,34 @@
         <v>4.918754537671171</v>
       </c>
       <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>27.90225239031517</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="L5" t="n">
-        <v>4.918754537671171</v>
-      </c>
       <c r="M5" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="N5" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>12.40763022708979</v>
@@ -4906,13 +4906,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="D6" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="E6" t="n">
         <v>1.442695040888963</v>
@@ -4924,43 +4924,43 @@
         <v>1.442695040888963</v>
       </c>
       <c r="H6" t="n">
+        <v>1.442695040888963</v>
+      </c>
+      <c r="I6" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="J6" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
+        <v>4.918754537671171</v>
+      </c>
+      <c r="M6" t="n">
+        <v>12.40763022708979</v>
+      </c>
+      <c r="N6" t="n">
         <v>27.90225239031517</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="L6" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="N6" t="n">
+      <c r="T6" t="n">
         <v>12.40763022708979</v>
-      </c>
-      <c r="O6" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="P6" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="R6" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="S6" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -4971,13 +4971,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.442695040888963</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="C7" t="n">
-        <v>4.918754537671171</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D7" t="n">
-        <v>4.918754537671171</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="E7" t="n">
         <v>4.918754537671171</v>
@@ -4989,40 +4989,40 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>1.442695040888963</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I7" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="K7" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="L7" t="n">
+        <v>1.442695040888963</v>
+      </c>
+      <c r="M7" t="n">
         <v>4.918754537671171</v>
-      </c>
-      <c r="M7" t="n">
-        <v>12.40763022708979</v>
       </c>
       <c r="N7" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
         <v>12.40763022708979</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="R7" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.918754537671171</v>
       </c>
       <c r="T7" t="n">
         <v>27.90225239031517</v>
@@ -5036,31 +5036,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>4.918754537671171</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="D8" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="F8" t="n">
+        <v>1.442695040888963</v>
+      </c>
+      <c r="G8" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.40763022708979</v>
+      </c>
+      <c r="J8" t="n">
         <v>1.442695040888963</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="J8" t="n">
-        <v>4.918754537671171</v>
       </c>
       <c r="K8" t="n">
         <v>27.90225239031517</v>
@@ -5069,28 +5069,28 @@
         <v>12.40763022708979</v>
       </c>
       <c r="M8" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="N8" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="S8" t="n">
         <v>1.442695040888963</v>
       </c>
       <c r="T8" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -5101,61 +5101,61 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="C9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="E9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="F9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="R9" t="n">
         <v>1.442695040888963</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="M9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="N9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="O9" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="P9" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="R9" t="n">
-        <v>12.40763022708979</v>
       </c>
       <c r="S9" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -5166,61 +5166,61 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="E10" t="n">
-        <v>27.90225239031517</v>
-      </c>
       <c r="F10" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="G10" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="H10" t="n">
+        <v>1.442695040888963</v>
+      </c>
+      <c r="I10" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="I10" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="N10" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="R10" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>12.40763022708979</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -5234,19 +5234,19 @@
         <v>27.90225239031517</v>
       </c>
       <c r="C11" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="E11" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="F11" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4.918754537671171</v>
-      </c>
-      <c r="G11" t="n">
-        <v>12.40763022708979</v>
       </c>
       <c r="H11" t="n">
         <v>27.90225239031517</v>
@@ -5270,13 +5270,13 @@
         <v>12.40763022708979</v>
       </c>
       <c r="O11" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -5299,28 +5299,28 @@
         <v>12.40763022708979</v>
       </c>
       <c r="C12" t="n">
-        <v>12.40763022708979</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="D12" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="E12" t="n">
+        <v>12.40763022708979</v>
+      </c>
+      <c r="F12" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>1.442695040888963</v>
-      </c>
-      <c r="G12" t="n">
-        <v>4.918754537671171</v>
       </c>
       <c r="H12" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>27.90225239031517</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>1.442695040888963</v>
@@ -5335,22 +5335,22 @@
         <v>4.918754537671171</v>
       </c>
       <c r="O12" t="n">
-        <v>12.40763022708979</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P12" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>27.90225239031517</v>
       </c>
       <c r="T12" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -5361,31 +5361,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="C13" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>1.442695040888963</v>
       </c>
       <c r="E13" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="F13" t="n">
+        <v>12.40763022708979</v>
+      </c>
+      <c r="G13" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="F13" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="G13" t="n">
-        <v>12.40763022708979</v>
-      </c>
       <c r="H13" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="I13" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>4.918754537671171</v>
@@ -5400,25 +5400,25 @@
         <v>1.442695040888963</v>
       </c>
       <c r="O13" t="n">
-        <v>4.918754537671171</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="P13" t="n">
-        <v>1.442695040888963</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -5429,28 +5429,28 @@
         <v>12.40763022708979</v>
       </c>
       <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.442695040888963</v>
-      </c>
       <c r="E14" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>12.40763022708979</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="G14" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="H14" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>12.40763022708979</v>
@@ -5465,25 +5465,25 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.442695040888963</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="P14" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -5491,43 +5491,43 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.90225239031517</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="C15" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>4.918754537671171</v>
       </c>
       <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="M15" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="F15" t="n">
+      <c r="N15" t="n">
         <v>27.90225239031517</v>
-      </c>
-      <c r="G15" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="H15" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="I15" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="M15" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="N15" t="n">
-        <v>1.442695040888963</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -5536,19 +5536,19 @@
         <v>1.442695040888963</v>
       </c>
       <c r="Q15" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -5556,43 +5556,43 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
+        <v>4.918754537671171</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="C16" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="D16" t="n">
-        <v>4.918754537671171</v>
-      </c>
       <c r="E16" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
         <v>27.90225239031517</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="L16" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1.442695040888963</v>
-      </c>
       <c r="N16" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>1.442695040888963</v>
@@ -5601,19 +5601,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -5621,49 +5621,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>4.918754537671171</v>
       </c>
-      <c r="C17" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="D17" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="F17" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.442695040888963</v>
-      </c>
-      <c r="H17" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="I17" t="n">
-        <v>12.40763022708979</v>
-      </c>
       <c r="J17" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -5672,13 +5672,13 @@
         <v>1.442695040888963</v>
       </c>
       <c r="S17" t="n">
-        <v>4.918754537671171</v>
+        <v>27.90225239031517</v>
       </c>
       <c r="T17" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="U17" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -5686,49 +5686,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
         <v>27.90225239031517</v>
       </c>
-      <c r="D18" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="E18" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="G18" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="H18" t="n">
-        <v>4.918754537671171</v>
-      </c>
       <c r="I18" t="n">
-        <v>12.40763022708979</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="J18" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>1.442695040888963</v>
@@ -5737,10 +5737,10 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>1.442695040888963</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="T18" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -5751,22 +5751,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="D19" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="F19" t="n">
+        <v>4.918754537671171</v>
+      </c>
+      <c r="G19" t="n">
         <v>12.40763022708979</v>
-      </c>
-      <c r="G19" t="n">
-        <v>4.918754537671171</v>
       </c>
       <c r="H19" t="n">
         <v>1.442695040888963</v>
@@ -5775,7 +5775,7 @@
         <v>4.918754537671171</v>
       </c>
       <c r="J19" t="n">
-        <v>12.40763022708979</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -5784,28 +5784,28 @@
         <v>27.90225239031517</v>
       </c>
       <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>27.90225239031517</v>
+      </c>
+      <c r="R19" t="n">
         <v>12.40763022708979</v>
       </c>
-      <c r="N19" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="O19" t="n">
-        <v>27.90225239031517</v>
-      </c>
-      <c r="P19" t="n">
-        <v>12.40763022708979</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>4.918754537671171</v>
-      </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
         <v>1.442695040888963</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -5819,61 +5819,61 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>27.90225239031517</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="D20" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>27.90225239031517</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="G20" t="n">
         <v>27.90225239031517</v>
       </c>
       <c r="H20" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>12.40763022708979</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>12.40763022708979</v>
       </c>
       <c r="R20" t="n">
-        <v>27.90225239031517</v>
+        <v>4.918754537671171</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.442695040888963</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -5887,7 +5887,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5914,19 +5914,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.918754537671171</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>12.40763022708979</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.90225239031517</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>1.442695040888963</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
